--- a/java/watch-service/doc/watchservice.xlsx
+++ b/java/watch-service/doc/watchservice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>WatchService</t>
     <phoneticPr fontId="2"/>
@@ -30,23 +30,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>queue (WatchKey)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WatchKey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>events (WatchEvent)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pollEvents()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>keys (WatchKey)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -74,6 +58,118 @@
   </si>
   <si>
     <t>count (int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>keys (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WatchKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>queue (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WatchKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WatchKey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>events (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WatchEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修</t>
+    <rPh sb="0" eb="1">
+      <t>オサム</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -81,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +204,27 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF009900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -243,12 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,16 +371,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,13 +554,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -438,8 +571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="1323975"/>
-          <a:ext cx="2886075" cy="685800"/>
+          <a:off x="2571749" y="1323975"/>
+          <a:ext cx="3990975" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -482,18 +615,39 @@
             <a:t>が </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>READY </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>から </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>SIGNALLED </a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>に変わると</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>になると、</a:t>
+            <a:t>、</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -730,13 +884,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>142877</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -745,13 +899,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990852" y="4924424"/>
-          <a:ext cx="1400174" cy="428625"/>
+          <a:off x="2990852" y="4905374"/>
+          <a:ext cx="3381374" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -134088"/>
-            <a:gd name="adj2" fmla="val -16998"/>
+            <a:gd name="adj1" fmla="val -85356"/>
+            <a:gd name="adj2" fmla="val -1442"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -779,19 +933,8 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>監視対象の </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Path</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>作成・修正・削除されたファイル・フォルダ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -852,6 +995,88 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>このイベントが発生した回数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形吹き出し 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2209800"/>
+          <a:ext cx="1895475" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124112"/>
+            <a:gd name="adj2" fmla="val -22831"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キューの先頭から、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WatchKey </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を取り出す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1151,7 +1376,7 @@
   <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="BF28" sqref="BF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,101 +1385,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
@@ -1263,7 +1496,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1272,121 +1505,127 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/java/watch-service/doc/watchservice.xlsx
+++ b/java/watch-service/doc/watchservice.xlsx
@@ -559,8 +559,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -572,12 +572,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2571749" y="1323975"/>
-          <a:ext cx="3990975" cy="685800"/>
+          <a:ext cx="2876551" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -71348"/>
-            <a:gd name="adj2" fmla="val -10331"/>
+            <a:gd name="adj1" fmla="val -74659"/>
+            <a:gd name="adj2" fmla="val -6164"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -601,55 +601,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="none">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>WatchKey </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="none">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>が </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>READY </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>から </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="none">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>SIGNALLED </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>に変わると</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="none">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>になると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="none">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -657,7 +636,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="none">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -761,14 +740,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -777,13 +756,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447926" y="3343274"/>
+          <a:off x="2447926" y="3238499"/>
           <a:ext cx="2419350" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -71348"/>
-            <a:gd name="adj2" fmla="val -10331"/>
+            <a:gd name="adj1" fmla="val -76072"/>
+            <a:gd name="adj2" fmla="val 14113"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1009,10 +988,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1022,12 +1001,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2571750" y="2209800"/>
-          <a:ext cx="1895475" cy="685800"/>
+          <a:ext cx="3895726" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -124112"/>
-            <a:gd name="adj2" fmla="val -22831"/>
+            <a:gd name="adj1" fmla="val -82875"/>
+            <a:gd name="adj2" fmla="val -24958"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1055,7 +1034,21 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>キューの先頭から、</a:t>
+            <a:t>キューの先頭から </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WatchKey </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を取り出す</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1065,6 +1058,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>取り出された </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1076,7 +1076,82 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>を取り出す</a:t>
+            <a:t>は、キューから削除される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形吹き出し 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="3838574"/>
+          <a:ext cx="3905250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69397"/>
+            <a:gd name="adj2" fmla="val 16336"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>イベントを全て取得し、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WatchEvent </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>から削除する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1376,7 +1451,7 @@
   <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF28" sqref="BF28"/>
+      <selection activeCell="BC35" sqref="BC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
